--- a/1des/Pre-turma-B.xlsx
+++ b/1des/Pre-turma-B.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\senai2021\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2021\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Gabriel Vital Ferreira</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Michael Leonardo Chaves Medeiros</t>
-  </si>
-  <si>
-    <t>Augusto Cezar da Silva</t>
   </si>
 </sst>
 </file>
@@ -404,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,11 +512,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/1des/Pre-turma-B.xlsx
+++ b/1des/Pre-turma-B.xlsx
@@ -404,7 +404,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,12 +414,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -434,22 +434,22 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -459,60 +459,63 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:A20">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>